--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200316.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200316.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E299AB-9E67-4D3D-BC01-8AFEF115A100}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98B2359-0862-4479-B68E-58888252812E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="810" windowWidth="16875" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -600,10 +600,14 @@
   <dimension ref="A1:AN21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O19"/>
+      <selection activeCell="K2" sqref="K2:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1089,6 +1093,9 @@
       <c r="G7" t="s">
         <v>59</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
       <c r="M7">
         <v>1175</v>
       </c>
@@ -1426,6 +1433,9 @@
       <c r="G12" t="s">
         <v>64</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
       <c r="L12">
         <v>1</v>
       </c>
@@ -1695,6 +1705,9 @@
       <c r="G16" t="s">
         <v>68</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
       <c r="M16">
         <v>252</v>
       </c>
@@ -1760,6 +1773,9 @@
       <c r="G17" t="s">
         <v>69</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
       <c r="M17">
         <v>198</v>
       </c>
@@ -2003,7 +2019,7 @@
         <v>-15</v>
       </c>
       <c r="K21">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="L21">
         <v>12</v>
